--- a/User Stories [TEMPLATE].xlsx
+++ b/User Stories [TEMPLATE].xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="390" yWindow="615" windowWidth="19815" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t xml:space="preserve"> EPIC</t>
   </si>
@@ -83,9 +83,6 @@
     <t>LG</t>
   </si>
   <si>
-    <t>[A list of acceptance tests]</t>
-  </si>
-  <si>
     <t>[Any thing that must be done prior to this story]</t>
   </si>
   <si>
@@ -147,6 +144,53 @@
   </si>
   <si>
     <t>As an expert, I should be able to view all reserved slot'sinfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.A pop-up message will appear to confirm the cancellation
+2.The slot will be removed from the user and the expert shecdule
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.A pop-up message will appear to confirm the cancellation
+2.The slot will be removed from the expert and the user shecdule
+</t>
+  </si>
+  <si>
+    <t>1.A notification will be sent on the email and profile of the expert</t>
+  </si>
+  <si>
+    <t>1.A notification will be sent on the email and profile of the user</t>
+  </si>
+  <si>
+    <t>1.The user will be directed to his/her schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-A pop-up message will appear to ensure that the expert wants to block this certain user
+2.If the expert was in the user's favourite list he/she will be removed 
+3.The user will not be able to view the expert's profile
+4.The user will not get any results in the search about the expert </t>
+  </si>
+  <si>
+    <t>1.A list will appear with the participants usernames 
+2.The user will be redirected to any participant's profile upon clicking on his/her username</t>
+  </si>
+  <si>
+    <t>1.The expert will be directed to his/her schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.A pop-up message will appear with the new session's info for the user to confirm
+2.A notification will be sent on the email and profile of the expert
+3.The schedule of the user and the expert will be updated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.The expert will receive a notification on the email and profile
+2.The user will be sent new 3 slots to choose from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.The user will be sent 3 new slots to choose from or he/she can cancel the session
+3.If the user picked another slot the schedule of both the expert and the user will be updated</t>
   </si>
 </sst>
 </file>
@@ -887,8 +931,8 @@
   <dimension ref="A1:S1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -960,12 +1004,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="22.5">
+    <row r="2" spans="1:19" ht="56.25">
       <c r="A2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>20</v>
@@ -974,16 +1018,16 @@
         <v>21</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>25</v>
       </c>
       <c r="I2" s="15" t="e">
         <f>IF(AND(OR(#REF!="1 High",#REF!="2 Med"),OR(#REF!="1 High",#REF!="2 Med")),"Strategic",IF(AND(OR(#REF!="1 High",#REF!="2 Med"),OR(#REF!="3 Med",#REF!="4 Low")),"Leveraged",IF(AND(OR(#REF!="3 Med",#REF!="4 Low"),OR(#REF!="1 High",#REF!="2 Med")),"Focused",IF(AND(OR(#REF!="3 Med",#REF!="4 Low"),OR(#REF!="3 Med",#REF!="4 Low")),"Routine",""))))</f>
@@ -1018,7 +1062,7 @@
         <v>[Theme, Epic, or Dept]</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R2" s="19" t="e">
         <f t="shared" ref="R2:R1000" si="5">IF(#REF!="MVP","0.0 MVP",#REF!)</f>
@@ -1029,12 +1073,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="12.75">
+    <row r="3" spans="1:19" ht="56.25">
       <c r="A3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>20</v>
@@ -1042,7 +1086,9 @@
       <c r="D3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="14"/>
@@ -1085,20 +1131,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="12.75">
+    <row r="4" spans="1:19" ht="22.5">
       <c r="A4" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="14"/>
@@ -1141,20 +1189,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="12.75">
+    <row r="5" spans="1:19" ht="22.5">
       <c r="A5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="14"/>
@@ -1197,20 +1247,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="12.75">
+    <row r="6" spans="1:19" ht="22.5">
       <c r="A6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="14"/>
@@ -1253,20 +1305,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="12.75">
+    <row r="7" spans="1:19" ht="22.5">
       <c r="A7" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="D7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="14"/>
@@ -1309,20 +1363,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="12.75">
+    <row r="8" spans="1:19" ht="56.25">
       <c r="A8" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="14"/>
@@ -1365,20 +1421,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="12.75">
+    <row r="9" spans="1:19" ht="78.75">
       <c r="A9" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="14"/>
@@ -1421,20 +1479,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="12.75">
+    <row r="10" spans="1:19" ht="67.5">
       <c r="A10" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="14"/>
@@ -1477,20 +1537,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="12.75">
+    <row r="11" spans="1:19" ht="22.5">
       <c r="A11" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="14"/>
@@ -1533,20 +1595,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="12.75">
+    <row r="12" spans="1:19" ht="56.25">
       <c r="A12" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
@@ -1589,20 +1653,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="12.75">
+    <row r="13" spans="1:19" ht="67.5">
       <c r="A13" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
@@ -1645,20 +1711,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="12.75">
+    <row r="14" spans="1:19" ht="101.25">
       <c r="A14" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="D14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="14"/>
